--- a/USHPRR/UMocascade_time.xlsx
+++ b/USHPRR/UMocascade_time.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3FCF7-A1DB-744D-914D-8C94F95ED41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF5D3C-A34A-2543-968F-475E92B88ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="4440" windowWidth="28040" windowHeight="17440" xr2:uid="{8CF5CE4F-0FB9-1A4F-9DD6-12048F059AB5}"/>
+    <workbookView minimized="1" xWindow="2200" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{8CF5CE4F-0FB9-1A4F-9DD6-12048F059AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="1000K" sheetId="2" r:id="rId2"/>
+    <sheet name="4kev" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="7">
   <si>
     <t>Step</t>
   </si>
@@ -2308,6 +2309,733 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4kev'!$L$6:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.70000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4kev'!$J$6:$J$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1613</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A215-4540-88D4-67D4B7292F02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="59146912"/>
+        <c:axId val="59147728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59146912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59147728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59147728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59146912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2389,6 +3117,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3976,6 +4744,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4076,6 +5360,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF66525-39F9-5844-9DD0-0CC73FF3A4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C90E332-6893-F34D-A685-743B25314AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4395,8 +5720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42AE26-8979-DA4B-A0F7-54F1EB7DD8B5}">
   <dimension ref="B2:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12473,4 +13798,3071 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B0B07E-CEBA-604E-A9E1-682F6D1DC61C}">
+  <dimension ref="B4:L85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>MAX(J7:J85)/MIN(J7:J85)</f>
+        <v>205.875</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f>I6/2</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>C6*0.00005</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L6">
+        <f>K6*1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J70" si="0">I7/2</f>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K24" si="1">C7*0.00005</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L6:L69" si="2">K7*1000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>156</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>250</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>356</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>496</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>3.5E-4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>676</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>864</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000004E-4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.45000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>976</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1080</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1142</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>571</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1222</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>611</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000008E-4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.65000000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1284</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>642</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1382</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1514</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>757</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1630</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1776</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1924</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>962</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>9.5E-4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2024</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="K25">
+        <f>C25*0.00005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2122</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>1061</v>
+      </c>
+      <c r="K26">
+        <f>(C26-20)*0.0001+$K$23</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>2346</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>1173</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K45" si="3">(C27-20)*0.0001+$K$23</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>2656</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>1328</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>2892</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>1446</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000002E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3066</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>1533</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3070</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>1535</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3272</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>1636</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3256</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>1628</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>3294</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>1647</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3226</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>1613</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000002E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3238</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>1619</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3124</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>1562</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>2896</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>1448</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>2776</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>1388</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>2702</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>1351</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>2506</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>2462</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>1231</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>2.6000000000000003E-3</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>2368</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>1184</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>2182</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>1091</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>2050</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1932</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>966</v>
+      </c>
+      <c r="K46">
+        <f>(C46-40)*0.001+$K$43</f>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1482</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47:K85" si="4">(C47-40)*0.001+$K$43</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1432</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>716</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1430</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>1330</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1404</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>702</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1534</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>767</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1730</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>1.0700000000000001E-2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>10.700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1374</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>1.1700000000000002E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>11.700000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1116</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1106</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>553</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>1.37E-2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>13.700000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>1528</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>1.4700000000000001E-2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1366</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="0"/>
+        <v>683</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>1.5700000000000002E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>15.700000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1132</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>1.67E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1154</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>1.77E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1088</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>18.700000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>1.9700000000000002E-2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>19.700000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>890</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>2.0700000000000003E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1054</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1046</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="0"/>
+        <v>523</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>22.700000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>868</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="0"/>
+        <v>434</v>
+      </c>
+      <c r="K66">
+        <f>(C66-60)*0.002+$K$65</f>
+        <v>2.47E-2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>62</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>756</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K85" si="5">(C67-60)*0.002+$K$65</f>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="2"/>
+        <v>26.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>816</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>2.8700000000000003E-2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="2"/>
+        <v>28.700000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>696</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="2"/>
+        <v>30.700000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>568</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>3.27E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ref="L70:L84" si="6">K70*1000</f>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>546</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" ref="J71:J85" si="7">I71/2</f>
+        <v>273</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>428</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>340</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="6"/>
+        <v>38.699999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>370</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>4.07E-2</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="6"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>292</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="6"/>
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>71</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>240</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>4.4700000000000004E-2</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>226</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>4.6700000000000005E-2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>158</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>4.8700000000000007E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="6"/>
+        <v>48.70000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>74</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>128</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="6"/>
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>120</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="6"/>
+        <v>52.699999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>96</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>54.699999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>77</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>66</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>5.67E-2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>78</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>78</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>68</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>6.0700000000000004E-2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="6"/>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>74</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="K85">
+        <f>(C85-60)*0.002+$K$65</f>
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="L85">
+        <f>K85*1000</f>
+        <v>62.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/USHPRR/UMocascade_time.xlsx
+++ b/USHPRR/UMocascade_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF5D3C-A34A-2543-968F-475E92B88ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0255A89E-2CFA-7A40-8599-BB5AF4C35FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2200" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{8CF5CE4F-0FB9-1A4F-9DD6-12048F059AB5}"/>
+    <workbookView xWindow="2200" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{8CF5CE4F-0FB9-1A4F-9DD6-12048F059AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="9">
   <si>
     <t>Step</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>NVE+NVT</t>
+  </si>
+  <si>
+    <t>1200 K</t>
+  </si>
+  <si>
+    <t>600 K</t>
   </si>
 </sst>
 </file>
@@ -3036,6 +3042,1461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4kev'!$L$6:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.70000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4kev'!$V$6:$V$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D887-AA46-B14D-FBC245DF44B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="59146912"/>
+        <c:axId val="59147728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59146912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59147728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59147728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59146912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4kev'!$L$6:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.70000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4kev'!$V$6:$V$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3218-BE45-8946-E2DC8551B86D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="59146912"/>
+        <c:axId val="59147728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59146912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59147728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59147728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59146912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3157,6 +4618,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5260,6 +6801,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5384,16 +7957,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5413,6 +7986,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F7A957-A4CE-2745-885F-3E55AD39257D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DE1EF7-14C3-254E-ABEF-79F4F3F868B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13802,26 +16451,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B0B07E-CEBA-604E-A9E1-682F6D1DC61C}">
-  <dimension ref="B4:L85"/>
+  <dimension ref="B2:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="J4">
         <f>MAX(J7:J85)/MIN(J7:J85)</f>
         <v>205.875</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="V4">
+        <f>MAX(V7:V85)/MIN(V7:V85)</f>
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="X5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -13858,8 +16522,44 @@
         <f>K6*1000</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <f>U6/2</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>O6*0.00005</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="X6">
+        <f>W6*1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -13893,11 +16593,47 @@
         <v>1E-4</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L6:L69" si="2">K7*1000</f>
+        <f t="shared" ref="L7:L69" si="2">K7*1000</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" ref="V7:V70" si="3">U7/2</f>
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W24" si="4">O7*0.00005</f>
+        <v>1E-4</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:X70" si="5">W7*1000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -13934,8 +16670,44 @@
         <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>70</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -13972,8 +16744,44 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>152</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -14010,8 +16818,44 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>260</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -14048,8 +16892,44 @@
         <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>346</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -14086,8 +16966,44 @@
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>436</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>3.5E-4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -14124,8 +17040,44 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>544</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -14162,8 +17114,44 @@
         <f t="shared" si="2"/>
         <v>0.45000000000000007</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>634</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="3"/>
+        <v>317</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>4.5000000000000004E-4</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -14200,8 +17188,44 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>728</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="3"/>
+        <v>364</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -14238,8 +17262,44 @@
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>834</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -14276,8 +17336,44 @@
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>954</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -14314,8 +17410,44 @@
         <f t="shared" si="2"/>
         <v>0.65000000000000013</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>13</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1004</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="3"/>
+        <v>502</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>6.5000000000000008E-4</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>0.65000000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -14352,8 +17484,44 @@
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1060</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -14390,8 +17558,44 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1178</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="3"/>
+        <v>589</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -14428,8 +17632,44 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>16</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1236</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="3"/>
+        <v>618</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -14466,8 +17706,44 @@
         <f t="shared" si="2"/>
         <v>0.85000000000000009</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>17</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1362</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="3"/>
+        <v>681</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -14504,8 +17780,44 @@
         <f t="shared" si="2"/>
         <v>0.90000000000000013</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>18</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1430</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="3"/>
+        <v>715</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -14542,8 +17854,44 @@
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>19</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1530</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>9.5E-4</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -14580,8 +17928,44 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1614</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="3"/>
+        <v>807</v>
+      </c>
+      <c r="W25">
+        <f>O25*0.00005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -14618,8 +18002,44 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1664</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="3"/>
+        <v>832</v>
+      </c>
+      <c r="W26">
+        <f>(O26-20)*0.0001+$K$23</f>
+        <v>1E-3</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -14649,15 +18069,51 @@
         <v>1173</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K45" si="3">(C27-20)*0.0001+$K$23</f>
+        <f t="shared" ref="K27:K45" si="6">(C27-20)*0.0001+$K$23</f>
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>22</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>1792</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="3"/>
+        <v>896</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ref="W27:W45" si="7">(O27-20)*0.0001+$K$23</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -14687,15 +18143,51 @@
         <v>1328</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1872</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="3"/>
+        <v>936</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="7"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -14725,15 +18217,51 @@
         <v>1446</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
         <v>1.3000000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1860</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="3"/>
+        <v>930</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="7"/>
+        <v>1.3000000000000002E-3</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -14763,15 +18291,51 @@
         <v>1533</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
         <v>1.4000000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1948</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="3"/>
+        <v>974</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -14801,15 +18365,51 @@
         <v>1535</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5E-3</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1940</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="3"/>
+        <v>970</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="7"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -14839,15 +18439,51 @@
         <v>1636</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1898</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="3"/>
+        <v>949</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -14877,15 +18513,51 @@
         <v>1628</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>1806</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="3"/>
+        <v>903</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -14915,15 +18587,51 @@
         <v>1647</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
         <v>1.8000000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1680</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="7"/>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -14953,15 +18661,51 @@
         <v>1613</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9000000000000002E-3</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
         <v>1.9000000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>30</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>1530</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="7"/>
+        <v>1.9000000000000002E-3</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -14991,15 +18735,51 @@
         <v>1619</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2E-3</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>31</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1432</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="3"/>
+        <v>716</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="7"/>
+        <v>2E-3</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -15029,15 +18809,51 @@
         <v>1562</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>1310</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="3"/>
+        <v>655</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="7"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -15067,15 +18883,51 @@
         <v>1448</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>33</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1244</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="3"/>
+        <v>622</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -15105,15 +18957,51 @@
         <v>1388</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3E-3</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1166</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="3"/>
+        <v>583</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="7"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -15143,15 +19031,51 @@
         <v>1351</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4000000000000002E-3</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>35</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>1098</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="3"/>
+        <v>549</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="7"/>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -15181,15 +19105,51 @@
         <v>1253</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>36</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>1024</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -15219,15 +19179,51 @@
         <v>1231</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.6000000000000003E-3</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
         <v>2.6000000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>37</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>1032</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="7"/>
+        <v>2.6000000000000003E-3</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>2.6000000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -15257,15 +19253,51 @@
         <v>1184</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>38</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>968</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="3"/>
+        <v>484</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="5"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -15295,15 +19327,51 @@
         <v>1091</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8E-3</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>39</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>936</v>
+      </c>
+      <c r="V44" s="2">
+        <f t="shared" si="3"/>
+        <v>468</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="7"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -15333,15 +19401,51 @@
         <v>1025</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9000000000000002E-3</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
         <v>2.9000000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>40</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>846</v>
+      </c>
+      <c r="V45" s="2">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="7"/>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="5"/>
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -15378,8 +19482,44 @@
         <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>41</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>820</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="W46">
+        <f>(O46-40)*0.001+$K$43</f>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -15409,15 +19549,51 @@
         <v>741</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47:K85" si="4">(C47-40)*0.001+$K$43</f>
+        <f t="shared" ref="K47:K65" si="8">(C47-40)*0.001+$K$43</f>
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>42</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>800</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ref="W47:W65" si="9">(O47-40)*0.001+$K$43</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="5"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -15447,15 +19623,51 @@
         <v>716</v>
       </c>
       <c r="K48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>43</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>678</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="9"/>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -15485,15 +19697,51 @@
         <v>715</v>
       </c>
       <c r="K49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>44</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>654</v>
+      </c>
+      <c r="V49" s="2">
+        <f t="shared" si="3"/>
+        <v>327</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="9"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="5"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -15523,15 +19771,51 @@
         <v>665</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>45</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>540</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="9"/>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="5"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -15561,15 +19845,51 @@
         <v>702</v>
       </c>
       <c r="K51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>46</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>482</v>
+      </c>
+      <c r="V51" s="2">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="9"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="5"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -15599,15 +19919,51 @@
         <v>767</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
         <v>9.7000000000000011</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>47</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>466</v>
+      </c>
+      <c r="V52" s="2">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="9"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="5"/>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -15637,15 +19993,51 @@
         <v>865</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0700000000000001E-2</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
         <v>10.700000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>48</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>458</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="9"/>
+        <v>1.0700000000000001E-2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="5"/>
+        <v>10.700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -15675,15 +20067,51 @@
         <v>687</v>
       </c>
       <c r="K54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1700000000000002E-2</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
         <v>11.700000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>49</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>324</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="9"/>
+        <v>1.1700000000000002E-2</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="5"/>
+        <v>11.700000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -15713,15 +20141,51 @@
         <v>558</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>50</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>288</v>
+      </c>
+      <c r="V55" s="2">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="9"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="5"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -15751,15 +20215,51 @@
         <v>553</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.37E-2</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
         <v>13.700000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>51</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>268</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="9"/>
+        <v>1.37E-2</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="5"/>
+        <v>13.700000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -15789,15 +20289,51 @@
         <v>764</v>
       </c>
       <c r="K57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4700000000000001E-2</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
         <v>14.700000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>276</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="9"/>
+        <v>1.4700000000000001E-2</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="5"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -15827,15 +20363,51 @@
         <v>683</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5700000000000002E-2</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
         <v>15.700000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>218</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="9"/>
+        <v>1.5700000000000002E-2</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="5"/>
+        <v>15.700000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -15865,15 +20437,51 @@
         <v>566</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.67E-2</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
         <v>16.7</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>54</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>170</v>
+      </c>
+      <c r="V59" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="9"/>
+        <v>1.67E-2</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="5"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -15903,15 +20511,51 @@
         <v>577</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.77E-2</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
         <v>17.7</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>55</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>152</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="9"/>
+        <v>1.77E-2</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="5"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -15941,15 +20585,51 @@
         <v>544</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
         <v>18.700000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>56</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>112</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="9"/>
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="5"/>
+        <v>18.700000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -15979,15 +20659,51 @@
         <v>500</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9700000000000002E-2</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
         <v>19.700000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>57</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>90</v>
+      </c>
+      <c r="V62" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="9"/>
+        <v>1.9700000000000002E-2</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="5"/>
+        <v>19.700000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -16017,15 +20733,51 @@
         <v>445</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.0700000000000003E-2</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
         <v>20.700000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>58</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>80</v>
+      </c>
+      <c r="V63" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="9"/>
+        <v>2.0700000000000003E-2</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="5"/>
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -16055,15 +20807,51 @@
         <v>527</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
         <v>21.7</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>66</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="9"/>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="5"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -16093,15 +20881,51 @@
         <v>523</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.2700000000000001E-2</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
         <v>22.700000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>54</v>
+      </c>
+      <c r="V65" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="9"/>
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="5"/>
+        <v>22.700000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -16138,8 +20962,44 @@
         <f t="shared" si="2"/>
         <v>24.7</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>61</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>42</v>
+      </c>
+      <c r="V66" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="W66">
+        <f>(O66-60)*0.002+$K$65</f>
+        <v>2.47E-2</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="5"/>
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -16169,15 +21029,51 @@
         <v>378</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K85" si="5">(C67-60)*0.002+$K$65</f>
+        <f t="shared" ref="K67:K84" si="10">(C67-60)*0.002+$K$65</f>
         <v>2.6700000000000002E-2</v>
       </c>
       <c r="L67">
         <f t="shared" si="2"/>
         <v>26.700000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>62</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>30</v>
+      </c>
+      <c r="V67" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W84" si="11">(O67-60)*0.002+$K$65</f>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="5"/>
+        <v>26.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -16207,15 +21103,51 @@
         <v>408</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8700000000000003E-2</v>
       </c>
       <c r="L68">
         <f t="shared" si="2"/>
         <v>28.700000000000003</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>63</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>26</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="11"/>
+        <v>2.8700000000000003E-2</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="5"/>
+        <v>28.700000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -16245,15 +21177,51 @@
         <v>348</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="L69">
         <f t="shared" si="2"/>
         <v>30.700000000000003</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>64</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>26</v>
+      </c>
+      <c r="V69" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="11"/>
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="5"/>
+        <v>30.700000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -16283,15 +21251,51 @@
         <v>284</v>
       </c>
       <c r="K70">
+        <f t="shared" si="10"/>
+        <v>3.27E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ref="L70:L84" si="12">K70*1000</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>65</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>28</v>
+      </c>
+      <c r="V70" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="11"/>
+        <v>3.27E-2</v>
+      </c>
+      <c r="X70">
         <f t="shared" si="5"/>
-        <v>3.27E-2</v>
-      </c>
-      <c r="L70">
-        <f t="shared" ref="L70:L84" si="6">K70*1000</f>
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -16317,19 +21321,55 @@
         <v>546</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" ref="J71:J85" si="7">I71/2</f>
+        <f t="shared" ref="J71:J85" si="13">I71/2</f>
         <v>273</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="L71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N71" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>66</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>28</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" ref="V71:V85" si="14">U71/2</f>
+        <v>14</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="11"/>
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="X71">
+        <f t="shared" ref="X71:X85" si="15">W71*1000</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -16355,19 +21395,55 @@
         <v>428</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>214</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.6700000000000003E-2</v>
       </c>
       <c r="L72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>67</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>24</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="11"/>
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="15"/>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -16393,19 +21469,55 @@
         <v>340</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>170</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="L73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>38.699999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N73" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>68</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>24</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="11"/>
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="15"/>
+        <v>38.699999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -16431,19 +21543,55 @@
         <v>370</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>185</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.07E-2</v>
       </c>
       <c r="L74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>69</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>24</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="11"/>
+        <v>4.07E-2</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="15"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -16469,19 +21617,55 @@
         <v>292</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>146</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="L75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.7</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N75" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>70</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>26</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="11"/>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="15"/>
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -16507,19 +21691,55 @@
         <v>240</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>120</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4700000000000004E-2</v>
       </c>
       <c r="L76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.7</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>71</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>24</v>
+      </c>
+      <c r="V76" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="11"/>
+        <v>4.4700000000000004E-2</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="15"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>0</v>
       </c>
@@ -16545,19 +21765,55 @@
         <v>226</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>113</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.6700000000000005E-2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>46.7</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N77" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>72</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>22</v>
+      </c>
+      <c r="V77" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="11"/>
+        <v>4.6700000000000005E-2</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="15"/>
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -16583,19 +21839,55 @@
         <v>158</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8700000000000007E-2</v>
       </c>
       <c r="L78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>48.70000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>73</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s">
+        <v>3</v>
+      </c>
+      <c r="U78">
+        <v>24</v>
+      </c>
+      <c r="V78" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="11"/>
+        <v>4.8700000000000007E-2</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="15"/>
+        <v>48.70000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -16621,19 +21913,55 @@
         <v>128</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.0700000000000002E-2</v>
       </c>
       <c r="L79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>50.7</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>74</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79" t="s">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
+        <v>3</v>
+      </c>
+      <c r="U79">
+        <v>22</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="11"/>
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="15"/>
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -16659,19 +21987,55 @@
         <v>120</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2699999999999997E-2</v>
       </c>
       <c r="L80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>52.699999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>75</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>22</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="11"/>
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="15"/>
+        <v>52.699999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -16697,19 +22061,55 @@
         <v>96</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>54.699999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>76</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81">
+        <v>22</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="11"/>
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="15"/>
+        <v>54.699999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -16735,19 +22135,55 @@
         <v>66</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.67E-2</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>56.7</v>
       </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>77</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>22</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="11"/>
+        <v>5.67E-2</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="15"/>
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -16773,19 +22209,55 @@
         <v>78</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>58.7</v>
       </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>78</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>22</v>
+      </c>
+      <c r="V83" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="11"/>
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="15"/>
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -16811,19 +22283,55 @@
         <v>68</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.0700000000000004E-2</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>60.7</v>
       </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>79</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
+        <v>3</v>
+      </c>
+      <c r="U84">
+        <v>22</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="11"/>
+        <v>6.0700000000000004E-2</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="15"/>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -16849,7 +22357,7 @@
         <v>74</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="K85">
@@ -16858,6 +22366,42 @@
       </c>
       <c r="L85">
         <f>K85*1000</f>
+        <v>62.7</v>
+      </c>
+      <c r="N85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>80</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s">
+        <v>3</v>
+      </c>
+      <c r="U85">
+        <v>24</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W85">
+        <f>(O85-60)*0.002+$K$65</f>
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="X85">
+        <f>W85*1000</f>
         <v>62.7</v>
       </c>
     </row>
